--- a/www/IndicatorsPerCountry/Bulgaria_GDPperCapita_TerritorialRef_1946_2012_CCode_100.xlsx
+++ b/www/IndicatorsPerCountry/Bulgaria_GDPperCapita_TerritorialRef_1946_2012_CCode_100.xlsx
@@ -327,13 +327,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Bulgaria_GDPperCapita_TerritorialRef_1946_2012_CCode_100.xlsx
+++ b/www/IndicatorsPerCountry/Bulgaria_GDPperCapita_TerritorialRef_1946_2012_CCode_100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="117">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,268 +36,298 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>840</t>
+    <t>1339</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>1534</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>1169</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1284</t>
-  </si>
-  <si>
-    <t>1454</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>1309</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>1493</t>
-  </si>
-  <si>
-    <t>1567</t>
-  </si>
-  <si>
-    <t>1595</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>1548</t>
-  </si>
-  <si>
-    <t>1479</t>
-  </si>
-  <si>
-    <t>1513</t>
-  </si>
-  <si>
-    <t>1387</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>1651</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>2085</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>2330</t>
-  </si>
-  <si>
-    <t>2508</t>
-  </si>
-  <si>
-    <t>2684</t>
-  </si>
-  <si>
-    <t>2912</t>
-  </si>
-  <si>
-    <t>3072</t>
-  </si>
-  <si>
-    <t>3295</t>
-  </si>
-  <si>
-    <t>3418</t>
-  </si>
-  <si>
-    <t>3657</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>4125</t>
-  </si>
-  <si>
-    <t>4320</t>
-  </si>
-  <si>
-    <t>4368</t>
-  </si>
-  <si>
-    <t>4546</t>
-  </si>
-  <si>
-    <t>4773</t>
-  </si>
-  <si>
-    <t>4902</t>
-  </si>
-  <si>
-    <t>5110</t>
-  </si>
-  <si>
-    <t>5284</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>5831</t>
-  </si>
-  <si>
-    <t>5982</t>
-  </si>
-  <si>
-    <t>5896</t>
-  </si>
-  <si>
-    <t>6019</t>
-  </si>
-  <si>
-    <t>6245</t>
-  </si>
-  <si>
-    <t>6044</t>
-  </si>
-  <si>
-    <t>6186</t>
-  </si>
-  <si>
-    <t>6370</t>
-  </si>
-  <si>
-    <t>6237</t>
-  </si>
-  <si>
-    <t>6430</t>
-  </si>
-  <si>
-    <t>6226</t>
-  </si>
-  <si>
-    <t>6380</t>
-  </si>
-  <si>
-    <t>6382</t>
-  </si>
-  <si>
-    <t>6335</t>
-  </si>
-  <si>
-    <t>6216</t>
-  </si>
-  <si>
-    <t>5596.90039274</t>
-  </si>
-  <si>
-    <t>5197.86101133</t>
-  </si>
-  <si>
-    <t>4884.37156046</t>
-  </si>
-  <si>
-    <t>4935.73343347</t>
-  </si>
-  <si>
-    <t>5078.23936294</t>
-  </si>
-  <si>
-    <t>5285.32875635</t>
-  </si>
-  <si>
-    <t>4844.28191049</t>
-  </si>
-  <si>
-    <t>4628.00921392</t>
-  </si>
-  <si>
-    <t>4870.39515691</t>
-  </si>
-  <si>
-    <t>5137.23279317</t>
-  </si>
-  <si>
-    <t>5483.30881883</t>
-  </si>
-  <si>
-    <t>5770.03574373</t>
-  </si>
-  <si>
-    <t>6098.74181002</t>
-  </si>
-  <si>
-    <t>6496.74371409</t>
-  </si>
-  <si>
-    <t>7000.11306244</t>
-  </si>
-  <si>
-    <t>7512.79470092</t>
-  </si>
-  <si>
-    <t>8072.31323549</t>
-  </si>
-  <si>
-    <t>8666.20009122</t>
-  </si>
-  <si>
-    <t>9278.93146882</t>
-  </si>
-  <si>
-    <t>8841.37554843</t>
-  </si>
-  <si>
-    <t>8945.50965968</t>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2389</t>
+  </si>
+  <si>
+    <t>2672</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>2386</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>3228</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>3392</t>
+  </si>
+  <si>
+    <t>3714</t>
+  </si>
+  <si>
+    <t>3998</t>
+  </si>
+  <si>
+    <t>4278</t>
+  </si>
+  <si>
+    <t>4642</t>
+  </si>
+  <si>
+    <t>4897</t>
+  </si>
+  <si>
+    <t>5252</t>
+  </si>
+  <si>
+    <t>5448</t>
+  </si>
+  <si>
+    <t>5829</t>
+  </si>
+  <si>
+    <t>6137</t>
+  </si>
+  <si>
+    <t>6575</t>
+  </si>
+  <si>
+    <t>6886</t>
+  </si>
+  <si>
+    <t>6963</t>
+  </si>
+  <si>
+    <t>7246</t>
+  </si>
+  <si>
+    <t>7608</t>
+  </si>
+  <si>
+    <t>7814</t>
+  </si>
+  <si>
+    <t>8145</t>
+  </si>
+  <si>
+    <t>8423</t>
+  </si>
+  <si>
+    <t>8630</t>
+  </si>
+  <si>
+    <t>9295</t>
+  </si>
+  <si>
+    <t>9535</t>
+  </si>
+  <si>
+    <t>9398</t>
+  </si>
+  <si>
+    <t>9594</t>
+  </si>
+  <si>
+    <t>9954</t>
+  </si>
+  <si>
+    <t>9634</t>
+  </si>
+  <si>
+    <t>9860</t>
+  </si>
+  <si>
+    <t>10154</t>
+  </si>
+  <si>
+    <t>9942</t>
+  </si>
+  <si>
+    <t>10249</t>
+  </si>
+  <si>
+    <t>9924</t>
+  </si>
+  <si>
+    <t>10170</t>
+  </si>
+  <si>
+    <t>10173</t>
+  </si>
+  <si>
+    <t>10098</t>
+  </si>
+  <si>
+    <t>9908</t>
+  </si>
+  <si>
+    <t>8922</t>
+  </si>
+  <si>
+    <t>8319.67292857707</t>
+  </si>
+  <si>
+    <t>7846.11595075794</t>
+  </si>
+  <si>
+    <t>7959.1636575086</t>
+  </si>
+  <si>
+    <t>8212.29648627268</t>
+  </si>
+  <si>
+    <t>8566.6027454811</t>
+  </si>
+  <si>
+    <t>7901.12362510364</t>
+  </si>
+  <si>
+    <t>7927.42911372784</t>
+  </si>
+  <si>
+    <t>8322.08200374164</t>
+  </si>
+  <si>
+    <t>7921.76528334093</t>
+  </si>
+  <si>
+    <t>8410.7949775813</t>
+  </si>
+  <si>
+    <t>8832.2905643203</t>
+  </si>
+  <si>
+    <t>9471.76566143597</t>
+  </si>
+  <si>
+    <t>10080.7830238223</t>
+  </si>
+  <si>
+    <t>10853.7851534274</t>
+  </si>
+  <si>
+    <t>11758.0840652969</t>
+  </si>
+  <si>
+    <t>12706.1816028396</t>
+  </si>
+  <si>
+    <t>13785.2276032698</t>
+  </si>
+  <si>
+    <t>14761.7147267543</t>
+  </si>
+  <si>
+    <t>14363.2584268303</t>
+  </si>
+  <si>
+    <t>14686.46106311</t>
+  </si>
+  <si>
+    <t>15112</t>
+  </si>
+  <si>
+    <t>15204</t>
+  </si>
+  <si>
+    <t>15420</t>
+  </si>
+  <si>
+    <t>15711</t>
+  </si>
+  <si>
+    <t>16373</t>
+  </si>
+  <si>
+    <t>17037</t>
   </si>
   <si>
     <t>Description</t>
@@ -755,7 +785,7 @@
         <v>1890.0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -789,7 +819,7 @@
         <v>1892.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +938,7 @@
         <v>1899.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -925,7 +955,7 @@
         <v>1900.0</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1010,7 +1040,7 @@
         <v>1905.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1095,7 +1125,7 @@
         <v>1910.0</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1112,7 +1142,7 @@
         <v>1911.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1146,7 +1176,7 @@
         <v>1913.0</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1265,7 +1295,7 @@
         <v>1920.0</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1282,7 +1312,7 @@
         <v>1921.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1333,7 +1363,7 @@
         <v>1924.0</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1350,7 +1380,7 @@
         <v>1925.0</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1367,7 +1397,7 @@
         <v>1926.0</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1384,7 +1414,7 @@
         <v>1927.0</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -1401,7 +1431,7 @@
         <v>1928.0</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -1418,7 +1448,7 @@
         <v>1929.0</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1435,7 +1465,7 @@
         <v>1930.0</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1452,7 +1482,7 @@
         <v>1931.0</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -1469,7 +1499,7 @@
         <v>1932.0</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -1486,7 +1516,7 @@
         <v>1933.0</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -1503,7 +1533,7 @@
         <v>1934.0</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -1520,7 +1550,7 @@
         <v>1935.0</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
@@ -1537,7 +1567,7 @@
         <v>1936.0</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -1554,7 +1584,7 @@
         <v>1937.0</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -1571,7 +1601,7 @@
         <v>1938.0</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1588,7 +1618,7 @@
         <v>1939.0</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -1605,7 +1635,7 @@
         <v>1940.0</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
@@ -1622,7 +1652,7 @@
         <v>1941.0</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -1639,7 +1669,7 @@
         <v>1942.0</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -1656,7 +1686,7 @@
         <v>1943.0</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -1673,7 +1703,7 @@
         <v>1944.0</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -1690,7 +1720,7 @@
         <v>1945.0</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -1741,7 +1771,7 @@
         <v>1948.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
@@ -1758,7 +1788,7 @@
         <v>1949.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
@@ -1775,7 +1805,7 @@
         <v>1950.0</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
@@ -1792,7 +1822,7 @@
         <v>1951.0</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
@@ -1809,7 +1839,7 @@
         <v>1952.0</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -1826,7 +1856,7 @@
         <v>1953.0</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -1843,7 +1873,7 @@
         <v>1954.0</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1860,7 +1890,7 @@
         <v>1955.0</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
@@ -1877,7 +1907,7 @@
         <v>1956.0</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
@@ -1894,7 +1924,7 @@
         <v>1957.0</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
@@ -1911,7 +1941,7 @@
         <v>1958.0</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
@@ -1928,7 +1958,7 @@
         <v>1959.0</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
@@ -1945,7 +1975,7 @@
         <v>1960.0</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
@@ -1962,7 +1992,7 @@
         <v>1961.0</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94">
@@ -1979,7 +2009,7 @@
         <v>1962.0</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95">
@@ -1996,7 +2026,7 @@
         <v>1963.0</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
@@ -2013,7 +2043,7 @@
         <v>1964.0</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
@@ -2030,7 +2060,7 @@
         <v>1965.0</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98">
@@ -2047,7 +2077,7 @@
         <v>1966.0</v>
       </c>
       <c r="E98" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
@@ -2064,7 +2094,7 @@
         <v>1967.0</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100">
@@ -2081,7 +2111,7 @@
         <v>1968.0</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101">
@@ -2098,7 +2128,7 @@
         <v>1969.0</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102">
@@ -2115,7 +2145,7 @@
         <v>1970.0</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103">
@@ -2132,7 +2162,7 @@
         <v>1971.0</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104">
@@ -2149,7 +2179,7 @@
         <v>1972.0</v>
       </c>
       <c r="E104" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
@@ -2166,7 +2196,7 @@
         <v>1973.0</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106">
@@ -2183,7 +2213,7 @@
         <v>1974.0</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
@@ -2200,7 +2230,7 @@
         <v>1975.0</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108">
@@ -2217,7 +2247,7 @@
         <v>1976.0</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109">
@@ -2234,7 +2264,7 @@
         <v>1977.0</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110">
@@ -2251,7 +2281,7 @@
         <v>1978.0</v>
       </c>
       <c r="E110" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111">
@@ -2268,7 +2298,7 @@
         <v>1979.0</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112">
@@ -2285,7 +2315,7 @@
         <v>1980.0</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113">
@@ -2302,7 +2332,7 @@
         <v>1981.0</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114">
@@ -2319,7 +2349,7 @@
         <v>1982.0</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115">
@@ -2336,7 +2366,7 @@
         <v>1983.0</v>
       </c>
       <c r="E115" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116">
@@ -2353,7 +2383,7 @@
         <v>1984.0</v>
       </c>
       <c r="E116" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117">
@@ -2370,7 +2400,7 @@
         <v>1985.0</v>
       </c>
       <c r="E117" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
@@ -2387,7 +2417,7 @@
         <v>1986.0</v>
       </c>
       <c r="E118" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119">
@@ -2404,7 +2434,7 @@
         <v>1987.0</v>
       </c>
       <c r="E119" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120">
@@ -2421,7 +2451,7 @@
         <v>1988.0</v>
       </c>
       <c r="E120" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121">
@@ -2438,7 +2468,7 @@
         <v>1989.0</v>
       </c>
       <c r="E121" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122">
@@ -2455,7 +2485,7 @@
         <v>1990.0</v>
       </c>
       <c r="E122" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123">
@@ -2472,7 +2502,7 @@
         <v>1991.0</v>
       </c>
       <c r="E123" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
@@ -2489,7 +2519,7 @@
         <v>1992.0</v>
       </c>
       <c r="E124" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125">
@@ -2506,7 +2536,7 @@
         <v>1993.0</v>
       </c>
       <c r="E125" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126">
@@ -2523,7 +2553,7 @@
         <v>1994.0</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127">
@@ -2540,7 +2570,7 @@
         <v>1995.0</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128">
@@ -2557,7 +2587,7 @@
         <v>1996.0</v>
       </c>
       <c r="E128" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
@@ -2574,7 +2604,7 @@
         <v>1997.0</v>
       </c>
       <c r="E129" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130">
@@ -2591,7 +2621,7 @@
         <v>1998.0</v>
       </c>
       <c r="E130" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131">
@@ -2608,7 +2638,7 @@
         <v>1999.0</v>
       </c>
       <c r="E131" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132">
@@ -2625,7 +2655,7 @@
         <v>2000.0</v>
       </c>
       <c r="E132" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133">
@@ -2642,7 +2672,7 @@
         <v>2001.0</v>
       </c>
       <c r="E133" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134">
@@ -2659,7 +2689,7 @@
         <v>2002.0</v>
       </c>
       <c r="E134" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135">
@@ -2676,7 +2706,7 @@
         <v>2003.0</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136">
@@ -2693,7 +2723,7 @@
         <v>2004.0</v>
       </c>
       <c r="E136" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137">
@@ -2710,7 +2740,7 @@
         <v>2005.0</v>
       </c>
       <c r="E137" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138">
@@ -2727,7 +2757,7 @@
         <v>2006.0</v>
       </c>
       <c r="E138" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139">
@@ -2744,7 +2774,7 @@
         <v>2007.0</v>
       </c>
       <c r="E139" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140">
@@ -2761,7 +2791,7 @@
         <v>2008.0</v>
       </c>
       <c r="E140" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141">
@@ -2778,7 +2808,7 @@
         <v>2009.0</v>
       </c>
       <c r="E141" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142">
@@ -2795,7 +2825,109 @@
         <v>2010.0</v>
       </c>
       <c r="E142" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2813,50 +2945,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
